--- a/legislator/property/output/normal/潘孟安_2013-12-26_財產申報表_tmpf07c1.xlsx
+++ b/legislator/property/output/normal/潘孟安_2013-12-26_財產申報表_tmpf07c1.xlsx
@@ -18,9 +18,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="59">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="76">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>屏東縣恆春鎮大平頂段下大平頂小段02790000地號</t>
+  </si>
+  <si>
+    <t>屏東縣恆春鎮槺榔林段01430022地號</t>
+  </si>
+  <si>
+    <t>屏東縣恆春鎮槺榔林段01430019地號</t>
+  </si>
+  <si>
+    <t>屏東縣恆春鎮槺榔林段01430024地號</t>
+  </si>
+  <si>
+    <t>屏東縣恆春鎮槺榔林段01430027地號</t>
+  </si>
+  <si>
+    <t>屏東縣車城鄉興安段14980000地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>6593分之325</t>
+  </si>
+  <si>
+    <t>潘孟安</t>
+  </si>
+  <si>
+    <t>96年07月05日</t>
+  </si>
+  <si>
+    <t>98年05月20日</t>
+  </si>
+  <si>
+    <t>97年12月12日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>分割</t>
+  </si>
+  <si>
+    <t>1500000</t>
+  </si>
+  <si>
+    <t>3600000(與建物合購）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-26</t>
+  </si>
+  <si>
+    <t>tmpf07c1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -41,70 +143,19 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>屏東縣恆春鎮大平頂段下大平 頂小段0279-0000地號</t>
-  </si>
-  <si>
-    <t>屏東縣恆春鎮槺榔林段 0143-0022 地號</t>
-  </si>
-  <si>
-    <t>屏東縣恆春鎮槺榔林段 0143-0019 地號</t>
-  </si>
-  <si>
-    <t>屏東縣恆春鎮槺榔林段 0143-0024 地號</t>
-  </si>
-  <si>
-    <t>屏東縣恆春鎮槺榔林段 0143-0027 地號</t>
-  </si>
-  <si>
-    <t>屏東縣車城鄉興安段1498-0000 地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>6593分之 325</t>
-  </si>
-  <si>
-    <t>潘孟安</t>
-  </si>
-  <si>
-    <t>96年07月 05日</t>
-  </si>
-  <si>
-    <t>98年05月 20日</t>
-  </si>
-  <si>
-    <t>97年12月 12日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>分割</t>
-  </si>
-  <si>
-    <t>1，500’000</t>
-  </si>
-  <si>
-    <t>3，600,000(與 建物合購）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
     <t>屏東縣車城郷福安路</t>
   </si>
   <si>
     <t>屏東縣恆春鎮德和里德和路</t>
   </si>
   <si>
-    <t>98年01月 08日</t>
+    <t>98年01月08日</t>
   </si>
   <si>
     <t>新建</t>
   </si>
   <si>
-    <t>3,600，000(總 交易額）</t>
+    <t>3600000(總交易額）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -119,7 +170,7 @@
     <t>TOYOTA</t>
   </si>
   <si>
-    <t>97年06月 20日</t>
+    <t>97年06月20日</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -137,7 +188,7 @@
     <t>臺灣銀行中屏分行</t>
   </si>
   <si>
-    <t>合作金庫商業銀行北潮州 分行</t>
+    <t>合作金庫商業銀行北潮州分行</t>
   </si>
   <si>
     <t>第一商業銀行恆春分行</t>
@@ -146,7 +197,7 @@
     <t>彰化商業銀行車城分行</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司立 法院郵局</t>
+    <t>中華郵政股份有限公司立法院郵局</t>
   </si>
   <si>
     <t>活期存款</t>
@@ -158,7 +209,7 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>1,300，849</t>
+    <t>1300849</t>
   </si>
   <si>
     <t>債務人</t>
@@ -179,19 +230,19 @@
     <t>房屋貸款</t>
   </si>
   <si>
-    <t>第一銀行恆春分行 屏東縣恆春鎮中正路</t>
-  </si>
-  <si>
-    <t>彰化銀行車城分行 屏東縣車城鄉福興村中山路</t>
-  </si>
-  <si>
-    <t>2，365，760</t>
-  </si>
-  <si>
-    <t>98年12月 24日</t>
-  </si>
-  <si>
-    <t>98年07月 06日</t>
+    <t>第一銀行恆春分行屏東縣恆春鎮中正路</t>
+  </si>
+  <si>
+    <t>彰化銀行車城分行屏東縣車城鄉福興村中山路</t>
+  </si>
+  <si>
+    <t>2365760</t>
+  </si>
+  <si>
+    <t>98年12月24日</t>
+  </si>
+  <si>
+    <t>98年07月06日</t>
   </si>
   <si>
     <t>房貸</t>
@@ -553,13 +604,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,161 +632,308 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>2706</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1376</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="2">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>26.37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2">
         <v>8438</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1376</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>231</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H4" s="2">
         <v>73920</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1376</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>59.24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H5" s="2">
         <v>18957</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1376</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>13.11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H6" s="2">
         <v>4195</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1376</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>80.84</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1376</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="2">
         <v>18</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -753,25 +951,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -779,25 +977,25 @@
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2">
         <v>157.86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -805,22 +1003,22 @@
         <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2">
         <v>245.1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2">
         <v>5000000</v>
@@ -841,22 +1039,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -864,19 +1062,19 @@
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2">
         <v>2362</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2">
         <v>1500000</v>
@@ -897,19 +1095,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -917,19 +1115,19 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -937,16 +1135,16 @@
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2">
         <v>14727</v>
@@ -957,16 +1155,16 @@
         <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2">
         <v>12569</v>
@@ -977,16 +1175,16 @@
         <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2">
         <v>19888</v>
@@ -997,16 +1195,16 @@
         <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2">
         <v>67</v>
@@ -1017,16 +1215,16 @@
         <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2">
         <v>145</v>
@@ -1047,22 +1245,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1070,22 +1268,22 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1093,22 +1291,22 @@
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2">
         <v>4634451</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/潘孟安_2013-12-26_財產申報表_tmpf07c1.xlsx
+++ b/legislator/property/output/normal/潘孟安_2013-12-26_財產申報表_tmpf07c1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="56">
   <si>
     <t>name</t>
   </si>
@@ -62,7 +62,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>屏東縣恆春鎮大平頂段下大平頂小段02790000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>屏東縣恆春鎮槺榔林段01430022地號</t>
@@ -80,33 +83,27 @@
     <t>屏東縣車城鄉興安段14980000地號</t>
   </si>
   <si>
+    <t>6593分之325</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
-    <t>6593分之325</t>
-  </si>
-  <si>
     <t>潘孟安</t>
   </si>
   <si>
-    <t>96年07月05日</t>
-  </si>
-  <si>
     <t>98年05月20日</t>
   </si>
   <si>
     <t>97年12月12日</t>
   </si>
   <si>
+    <t>分割</t>
+  </si>
+  <si>
     <t>買賣</t>
   </si>
   <si>
-    <t>分割</t>
-  </si>
-  <si>
-    <t>1500000</t>
-  </si>
-  <si>
     <t>3600000(與建物合購）</t>
   </si>
   <si>
@@ -122,30 +119,12 @@
     <t>tmpf07c1</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>屏東縣車城郷福安路</t>
   </si>
   <si>
+    <t>3600000(總交易額）</t>
+  </si>
+  <si>
     <t>屏東縣恆春鎮德和里德和路</t>
   </si>
   <si>
@@ -155,39 +134,24 @@
     <t>新建</t>
   </si>
   <si>
-    <t>3600000(總交易額）</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>TOYOTA</t>
   </si>
   <si>
     <t>97年06月20日</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>臺灣銀行中屏分行</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>1300849</t>
+  </si>
+  <si>
     <t>合作金庫商業銀行北潮州分行</t>
   </si>
   <si>
@@ -200,52 +164,28 @@
     <t>中華郵政股份有限公司立法院郵局</t>
   </si>
   <si>
-    <t>活期存款</t>
-  </si>
-  <si>
     <t>中華郵政劃撥儲金</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>1300849</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>房屋貸款</t>
   </si>
   <si>
     <t>第一銀行恆春分行屏東縣恆春鎮中正路</t>
   </si>
   <si>
+    <t>2365760</t>
+  </si>
+  <si>
+    <t>98年12月24日</t>
+  </si>
+  <si>
+    <t>房貸</t>
+  </si>
+  <si>
     <t>彰化銀行車城分行屏東縣車城鄉福興村中山路</t>
   </si>
   <si>
-    <t>2365760</t>
-  </si>
-  <si>
-    <t>98年12月24日</t>
-  </si>
-  <si>
     <t>98年07月06日</t>
-  </si>
-  <si>
-    <t>房貸</t>
   </si>
 </sst>
 </file>
@@ -604,13 +544,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,287 +593,276 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>2706</v>
+        <v>26.37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>28</v>
+      <c r="H2" s="2">
+        <v>8438</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" s="2">
         <v>1376</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0492947065069013</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1.29990141058699</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>26.37</v>
+        <v>231</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2">
-        <v>8438</v>
+        <v>73920</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M3" s="2">
         <v>1376</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O3" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>231</v>
+        <v>59.24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2">
-        <v>73920</v>
+        <v>18957</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="L4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M4" s="2">
         <v>1376</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O4" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0492947065069013</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>2.92021841346883</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>59.24</v>
+        <v>13.11</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="2">
-        <v>18957</v>
+        <v>4195</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="L5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M5" s="2">
         <v>1376</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O5" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0492947065069013</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.646253602305475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>13.11</v>
+        <v>80.84</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="2">
-        <v>4195</v>
+      <c r="H6" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="L6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M6" s="2">
         <v>1376</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O6" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
         <v>80.84</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="2">
-        <v>1376</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" s="2">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -943,7 +872,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -951,76 +880,50 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1">
+        <v>157.86</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2">
-        <v>157.86</v>
+        <v>245.1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>24</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="2">
-        <v>245.1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="2">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2">
         <v>5000000</v>
       </c>
     </row>
@@ -1030,6 +933,169 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2362</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2">
+        <v>14727</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>51</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2">
+        <v>12569</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>52</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2">
+        <v>19888</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>53</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>54</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1039,274 +1105,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="2">
-        <v>2362</v>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4634451</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1500000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>49</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>50</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2">
-        <v>14727</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>51</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2">
-        <v>12569</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>52</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2">
-        <v>19888</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>53</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>54</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="2">
-        <v>145</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>95</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>96</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="2">
-        <v>4634451</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/潘孟安_2013-12-26_財產申報表_tmpf07c1.xlsx
+++ b/legislator/property/output/normal/潘孟安_2013-12-26_財產申報表_tmpf07c1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="59">
   <si>
     <t>name</t>
   </si>
@@ -68,6 +68,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>屏東縣恆春鎮大平頂段下大平頂小段02790000地號</t>
+  </si>
+  <si>
     <t>屏東縣恆春鎮槺榔林段01430022地號</t>
   </si>
   <si>
@@ -83,25 +86,31 @@
     <t>屏東縣車城鄉興安段14980000地號</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
     <t>6593分之325</t>
   </si>
   <si>
-    <t>全部</t>
-  </si>
-  <si>
     <t>潘孟安</t>
   </si>
   <si>
+    <t>96年07月05日</t>
+  </si>
+  <si>
     <t>98年05月20日</t>
   </si>
   <si>
     <t>97年12月12日</t>
   </si>
   <si>
+    <t>買賣</t>
+  </si>
+  <si>
     <t>分割</t>
   </si>
   <si>
-    <t>買賣</t>
+    <t>1500000</t>
   </si>
   <si>
     <t>3600000(與建物合購）</t>
@@ -122,16 +131,16 @@
     <t>屏東縣車城郷福安路</t>
   </si>
   <si>
+    <t>屏東縣恆春鎮德和里德和路</t>
+  </si>
+  <si>
+    <t>98年01月08日</t>
+  </si>
+  <si>
+    <t>新建</t>
+  </si>
+  <si>
     <t>3600000(總交易額）</t>
-  </si>
-  <si>
-    <t>屏東縣恆春鎮德和里德和路</t>
-  </si>
-  <si>
-    <t>98年01月08日</t>
-  </si>
-  <si>
-    <t>新建</t>
   </si>
   <si>
     <t>TOYOTA</t>
@@ -544,7 +553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -602,266 +611,319 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>26.37</v>
+        <v>2706</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="2">
-        <v>8438</v>
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" s="2">
         <v>1376</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
-        <v>0.0492947065069013</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>1.29990141058699</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>231</v>
+        <v>26.37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H3" s="2">
-        <v>73920</v>
+        <v>8438</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M3" s="2">
         <v>1376</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="2">
-        <v>1</v>
+        <v>0.0492947065069013</v>
       </c>
       <c r="Q3" s="2">
-        <v>231</v>
+        <v>1.29990141058699</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>59.24</v>
+        <v>231</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H4" s="2">
-        <v>18957</v>
+        <v>73920</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M4" s="2">
         <v>1376</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P4" s="2">
-        <v>0.0492947065069013</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2">
-        <v>2.92021841346883</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>13.11</v>
+        <v>59.24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H5" s="2">
-        <v>4195</v>
+        <v>18957</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5" s="2">
         <v>1376</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="2">
         <v>0.0492947065069013</v>
       </c>
       <c r="Q5" s="2">
-        <v>0.646253602305475</v>
+        <v>2.92021841346883</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>80.84</v>
+        <v>13.11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="H6" s="2">
+        <v>4195</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M6" s="2">
         <v>1376</v>
       </c>
       <c r="N6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="2">
+        <v>17</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.0492947065069013</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.646253602305475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2">
+        <v>80.84</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="2">
+      <c r="J7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1376</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="2">
         <v>18</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P7" s="2">
         <v>1</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q7" s="2">
         <v>80.84</v>
       </c>
     </row>
@@ -872,59 +934,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2">
         <v>157.86</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="2">
-        <v>245.1</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1376</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="2">
         <v>23</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>157.86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="2">
+      <c r="C3" s="2">
+        <v>245.1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="2">
         <v>5000000</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1376</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="2">
+        <v>24</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>245.1</v>
       </c>
     </row>
   </sheetData>
@@ -933,169 +1102,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2362</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1">
-        <v>1500000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>50</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2">
-        <v>14727</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>51</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2">
-        <v>12569</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>52</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2">
-        <v>19888</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>53</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>54</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="2">
-        <v>145</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1105,45 +1111,274 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2362</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>28</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1500000</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2362</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
         <v>49</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2">
+        <v>14727</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>51</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2">
+        <v>12569</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>52</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2">
+        <v>19888</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>53</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
         <v>54</v>
       </c>
-      <c r="E2" s="2">
-        <v>4634451</v>
+      <c r="B7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>95</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>55</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>96</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4634451</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/潘孟安_2013-12-26_財產申報表_tmpf07c1.xlsx
+++ b/legislator/property/output/normal/潘孟安_2013-12-26_財產申報表_tmpf07c1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="60">
   <si>
     <t>name</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>3600000(總交易額）</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>TOYOTA</t>
@@ -1103,38 +1106,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1">
-        <v>2362</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2">
         <v>2362</v>
@@ -1143,13 +1167,34 @@
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G2" s="2">
         <v>1500000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1376</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="2">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1167,19 +1212,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1187,19 +1232,19 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1207,13 +1252,13 @@
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
@@ -1227,13 +1272,13 @@
         <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
@@ -1247,13 +1292,13 @@
         <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
@@ -1267,13 +1312,13 @@
         <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
@@ -1287,13 +1332,13 @@
         <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
@@ -1317,22 +1362,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1340,22 +1385,22 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1363,22 +1408,22 @@
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3" s="2">
         <v>4634451</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/潘孟安_2013-12-26_財產申報表_tmpf07c1.xlsx
+++ b/legislator/property/output/normal/潘孟安_2013-12-26_財產申報表_tmpf07c1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="62">
   <si>
     <t>name</t>
   </si>
@@ -143,6 +143,9 @@
     <t>3600000(總交易額）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -150,6 +153,9 @@
   </si>
   <si>
     <t>97年06月20日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺灣銀行中屏分行</t>
@@ -1019,7 +1025,7 @@
         <v>40</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>33</v>
@@ -1072,7 +1078,7 @@
         <v>5000000</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>33</v>
@@ -1117,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1158,7 +1164,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2">
         <v>2362</v>
@@ -1167,7 +1173,7 @@
         <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>28</v>
@@ -1176,7 +1182,7 @@
         <v>1500000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>33</v>
@@ -1212,19 +1218,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1232,19 +1238,19 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1252,13 +1258,13 @@
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
@@ -1272,13 +1278,13 @@
         <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
@@ -1292,13 +1298,13 @@
         <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
@@ -1312,13 +1318,13 @@
         <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
@@ -1332,13 +1338,13 @@
         <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
@@ -1362,22 +1368,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1385,22 +1391,22 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1408,22 +1414,22 @@
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2">
         <v>4634451</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/潘孟安_2013-12-26_財產申報表_tmpf07c1.xlsx
+++ b/legislator/property/output/normal/潘孟安_2013-12-26_財產申報表_tmpf07c1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="65">
   <si>
     <t>name</t>
   </si>
@@ -158,31 +158,40 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣銀行中屏分行</t>
   </si>
   <si>
+    <t>合作金庫商業銀行北潮州分行</t>
+  </si>
+  <si>
+    <t>第一商業銀行恆春分行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行車城分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司立法院郵局</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>中華郵政劃撥儲金</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>1300849</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行北潮州分行</t>
-  </si>
-  <si>
-    <t>第一商業銀行恆春分行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行車城分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司立法院郵局</t>
-  </si>
-  <si>
-    <t>中華郵政劃撥儲金</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>房屋貸款</t>
@@ -1210,13 +1219,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
@@ -1227,33 +1236,75 @@
         <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="2">
+        <v>1300849</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1376</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="2">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>50</v>
       </c>
@@ -1261,10 +1312,10 @@
         <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>24</v>
@@ -1272,8 +1323,29 @@
       <c r="F3" s="2">
         <v>14727</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1376</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>51</v>
       </c>
@@ -1281,10 +1353,10 @@
         <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>24</v>
@@ -1292,8 +1364,29 @@
       <c r="F4" s="2">
         <v>12569</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1376</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>52</v>
       </c>
@@ -1301,10 +1394,10 @@
         <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>24</v>
@@ -1312,8 +1405,29 @@
       <c r="F5" s="2">
         <v>19888</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1376</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>53</v>
       </c>
@@ -1321,10 +1435,10 @@
         <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
@@ -1332,8 +1446,29 @@
       <c r="F6" s="2">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1376</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>54</v>
       </c>
@@ -1341,16 +1476,37 @@
         <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="2">
         <v>145</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1376</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="2">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1368,22 +1524,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1391,22 +1547,22 @@
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1414,22 +1570,22 @@
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2">
         <v>4634451</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/潘孟安_2013-12-26_財產申報表_tmpf07c1.xlsx
+++ b/legislator/property/output/normal/潘孟安_2013-12-26_財產申報表_tmpf07c1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="67">
   <si>
     <t>name</t>
   </si>
@@ -194,25 +194,31 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>房屋貸款</t>
   </si>
   <si>
     <t>第一銀行恆春分行屏東縣恆春鎮中正路</t>
   </si>
   <si>
-    <t>2365760</t>
+    <t>彰化銀行車城分行屏東縣車城鄉福興村中山路</t>
   </si>
   <si>
     <t>98年12月24日</t>
   </si>
   <si>
+    <t>98年07月06日</t>
+  </si>
+  <si>
     <t>房貸</t>
   </si>
   <si>
-    <t>彰化銀行車城分行屏東縣車城鄉福興村中山路</t>
-  </si>
-  <si>
-    <t>98年07月06日</t>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -1516,67 +1522,109 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>95</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2365760</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>65</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1376</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2">
         <v>4634451</v>
@@ -1585,7 +1633,28 @@
         <v>64</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1376</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="2">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
